--- a/artfynd/A 70227-2021.xlsx
+++ b/artfynd/A 70227-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>292860</v>
+        <v>292861</v>
       </c>
       <c r="B2" t="n">
         <v>90641</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -735,7 +735,7 @@
         <v>7460432.796873462</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
